--- a/data/trans_orig/P14C16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4A5F71-DB27-4CB6-AB28-605F866F6FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B18F040-7CFD-4922-BBF8-8B2DC556FDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FD700B2-0075-466C-B66A-2A15E512874C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E533C51-BFDB-4452-9FCC-B3C825AE1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
   <si>
     <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>74,16%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>89,52%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>25,84%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -122,10 +122,10 @@
     <t>10,48%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,73 +143,73 @@
     <t>77,94%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>33,84%</t>
+    <t>34,91%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>13,67%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>11,74%</t>
+    <t>11,34%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -221,13 +221,13 @@
     <t>92,77%</t>
   </si>
   <si>
-    <t>64,93%</t>
+    <t>67,99%</t>
   </si>
   <si>
     <t>96,41%</t>
   </si>
   <si>
-    <t>82,03%</t>
+    <t>82,29%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -236,13 +236,13 @@
     <t>7,23%</t>
   </si>
   <si>
-    <t>35,07%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>17,97%</t>
+    <t>17,71%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -254,40 +254,40 @@
     <t>94,53%</t>
   </si>
   <si>
-    <t>71,23%</t>
+    <t>71,19%</t>
   </si>
   <si>
     <t>86,36%</t>
   </si>
   <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>28,77%</t>
+    <t>28,81%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>7,21%</t>
@@ -296,19 +296,19 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>16,78%</t>
+    <t>16,46%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>17,54%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>11,71%</t>
+    <t>13,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -317,22 +317,22 @@
     <t>84,31%</t>
   </si>
   <si>
-    <t>53,6%</t>
+    <t>53,38%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>70,71%</t>
+    <t>71,29%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -341,19 +341,19 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>29,29%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>18,11%</t>
+    <t>18,28%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>46,4%</t>
+    <t>46,62%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -362,34 +362,31 @@
     <t>6,04%</t>
   </si>
   <si>
-    <t>18,61%</t>
+    <t>18,84%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>62,45%</t>
+    <t>68,47%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>17,77%</t>
@@ -398,28 +395,28 @@
     <t>5,83%</t>
   </si>
   <si>
-    <t>41,8%</t>
+    <t>42,2%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>37,55%</t>
+    <t>31,53%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>23,68%</t>
+    <t>28,74%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -428,7 +425,7 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>15,04%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -437,67 +434,67 @@
     <t>71,32%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>13,3%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>9,86%</t>
+    <t>10,05%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -506,61 +503,58 @@
     <t>85,25%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>20,75%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>13,44%</t>
+    <t>13,97%</t>
   </si>
   <si>
     <t>5,35%</t>
@@ -569,76 +563,73 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>14,19%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>16,87%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>7,51%</t>
@@ -647,19 +638,19 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1074,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF506859-6B2B-467A-8F98-F0FB46EDADE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE2604-AE35-44E7-B226-FA93086D6EF9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2228,13 +2219,13 @@
         <v>12601</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2243,10 +2234,10 @@
         <v>17980</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>14</v>
@@ -2258,13 +2249,13 @@
         <v>30581</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2270,13 @@
         <v>2928</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2294,13 +2285,13 @@
         <v>1530</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2309,13 +2300,13 @@
         <v>4459</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2321,13 @@
         <v>948</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2351,7 +2342,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2360,13 +2351,13 @@
         <v>948</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2413,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2434,13 +2425,13 @@
         <v>13871</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -2449,13 +2440,13 @@
         <v>39645</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -2464,13 +2455,13 @@
         <v>53515</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2476,13 @@
         <v>5578</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2500,13 +2491,13 @@
         <v>5751</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2515,13 +2506,13 @@
         <v>11329</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2542,13 @@
         <v>2047</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -2566,13 +2557,13 @@
         <v>2047</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2619,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2640,13 +2631,13 @@
         <v>40373</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H32" s="7">
         <v>55</v>
@@ -2655,13 +2646,13 @@
         <v>60239</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -2670,13 +2661,13 @@
         <v>100613</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2682,13 @@
         <v>5110</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -2706,13 +2697,13 @@
         <v>11126</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -2721,13 +2712,13 @@
         <v>16236</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2733,13 @@
         <v>1876</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2757,13 +2748,13 @@
         <v>4034</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -2772,13 +2763,13 @@
         <v>5910</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2837,13 @@
         <v>135460</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>215</v>
@@ -2861,13 +2852,13 @@
         <v>228999</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>344</v>
@@ -2876,13 +2867,13 @@
         <v>364459</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2888,13 @@
         <v>22407</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -2912,13 +2903,13 @@
         <v>34926</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -2927,13 +2918,13 @@
         <v>57333</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2939,13 @@
         <v>5686</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H38" s="7">
         <v>9</v>
@@ -2963,13 +2954,13 @@
         <v>9003</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>15</v>
@@ -2978,13 +2969,13 @@
         <v>14689</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,7 +3031,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C16-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B18F040-7CFD-4922-BBF8-8B2DC556FDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BBBF64-1C68-4A3E-B3FD-A4F16E43436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E533C51-BFDB-4452-9FCC-B3C825AE1AA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{409256C9-D607-4603-894F-B84413747D5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
-  <si>
-    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2015 (Tasa respuesta: 6,3%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="205">
+  <si>
+    <t>Población según el tiempo de diagnóstico del alergias crónicas en 2016 (Tasa respuesta: 6,3%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,10 +74,10 @@
     <t>74,16%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,331 +92,334 @@
     <t>89,52%</t>
   </si>
   <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>68,47%</t>
+    <t>68,48%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>31,53%</t>
+    <t>31,52%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>28,74%</t>
+    <t>29,29%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -425,7 +428,7 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>15,04%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -434,169 +437,163 @@
     <t>71,32%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>83,56%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>67,74%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>15,83%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>13,97%</t>
+    <t>12,07%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,54%</t>
+    <t>80,05%</t>
   </si>
   <si>
     <t>87,12%</t>
@@ -605,52 +602,52 @@
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>16,87%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1065,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE2604-AE35-44E7-B226-FA93086D6EF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4159DD-99B8-40F4-BF95-A302D22E047C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,13 +2216,13 @@
         <v>12601</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -2234,10 +2231,10 @@
         <v>17980</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>14</v>
@@ -2249,13 +2246,13 @@
         <v>30581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2267,13 @@
         <v>2928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2285,13 +2282,13 @@
         <v>1530</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2300,13 +2297,13 @@
         <v>4459</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2318,13 @@
         <v>948</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2342,7 +2339,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2351,13 +2348,13 @@
         <v>948</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,7 +2410,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2425,13 +2422,13 @@
         <v>13871</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -2440,13 +2437,13 @@
         <v>39645</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -2563,7 +2560,7 @@
         <v>24</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,7 +2616,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2631,13 +2628,13 @@
         <v>40373</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H32" s="7">
         <v>55</v>
@@ -2646,13 +2643,13 @@
         <v>60239</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M32" s="7">
         <v>94</v>
@@ -2661,13 +2658,13 @@
         <v>100613</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2679,13 @@
         <v>5110</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -2697,13 +2694,13 @@
         <v>11126</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -2712,13 +2709,13 @@
         <v>16236</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2730,13 @@
         <v>1876</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -2748,13 +2745,13 @@
         <v>4034</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -2763,13 +2760,13 @@
         <v>5910</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2834,13 @@
         <v>135460</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>215</v>
@@ -2852,13 +2849,13 @@
         <v>228999</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>344</v>
@@ -2867,13 +2864,13 @@
         <v>364459</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2885,13 @@
         <v>22407</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -2903,13 +2900,13 @@
         <v>34926</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -2918,10 +2915,10 @@
         <v>57333</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>195</v>
@@ -2975,7 +2972,7 @@
         <v>203</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>204</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,7 +3028,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
